--- a/ferramentas.xlsx
+++ b/ferramentas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,90 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Furadeira</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Bosh</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31423</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E2" t="n">
+        <v>220</v>
+      </c>
+      <c r="F2" t="n">
+        <v>220</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Eletrica</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Plastico, metais</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Parafusadeira</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Makita</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>13123</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Eletrica</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Plastico, metais</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ferramentas.xlsx
+++ b/ferramentas.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="cadastro" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="3333" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,133 +435,260 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>ferramenta</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>fabricante</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pnumber</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tamanho</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>unm</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>voltagem</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>material</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>resmax</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Furadeira</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Bosh</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>31423</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>30</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>220</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>220</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Eletrica</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Plastico, metais</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>Parafusadeira</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Makita</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>13123</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="n">
+        <v>13123</v>
+      </c>
+      <c r="F3" t="n">
+        <v>25</v>
+      </c>
+      <c r="G3" t="n">
+        <v>110</v>
+      </c>
+      <c r="H3" t="n">
+        <v>110</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Eletrica</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Plastico, metais</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>12312</v>
+      </c>
+      <c r="F4" t="n">
+        <v>123</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>3333</v>
+      </c>
+      <c r="F5" t="n">
+        <v>22</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>110</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>110</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Eletrica</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Plastico, metais</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3333</t>
         </is>
       </c>
     </row>
